--- a/teams_legendplayerdata.xlsx
+++ b/teams_legendplayerdata.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0291C8F-D4FC-498F-82FF-9D6CDB83641B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B103EB-0AA5-4AD9-A874-33A42B90C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{61E7AB89-8E23-4F86-ACC8-37F4CD873037}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="special case" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>球員</t>
   </si>
@@ -329,29 +328,13 @@
   </si>
   <si>
     <t>Glenn Robinson</t>
-  </si>
-  <si>
-    <t>Dikembe Mutombo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeBron James</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shaquille O'Neal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,12 +356,6 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF31333F"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,17 +380,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,65 +403,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>313899</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>34119</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Control 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3061,10 +2973,10 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -3087,103 +2999,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2456FE-1B97-4A38-8F38-93C47BAAF2DA}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId4" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>313899</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>34119</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId4" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
 </file>
--- a/teams_legendplayerdata.xlsx
+++ b/teams_legendplayerdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B103EB-0AA5-4AD9-A874-33A42B90C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29E107-0A3C-4DA3-83B5-69D390BD27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{61E7AB89-8E23-4F86-ACC8-37F4CD873037}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>球員</t>
   </si>
@@ -328,6 +328,18 @@
   </si>
   <si>
     <t>Glenn Robinson</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Nick Anderson</t>
+  </si>
+  <si>
+    <t>Grant Long</t>
+  </si>
+  <si>
+    <t>Elton Brand</t>
   </si>
 </sst>
 </file>
@@ -704,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632F90AA-610E-4A4F-B3F9-506701290A79}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2970,6 +2982,110 @@
       </c>
       <c r="H87" s="1">
         <v>14234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>1073</v>
+      </c>
+      <c r="C88">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D88">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="E88">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F88">
+        <v>12546</v>
+      </c>
+      <c r="G88">
+        <v>42158</v>
+      </c>
+      <c r="H88">
+        <v>23757</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>800</v>
+      </c>
+      <c r="C89">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="D89">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E89">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F89">
+        <v>4064</v>
+      </c>
+      <c r="G89">
+        <v>2087</v>
+      </c>
+      <c r="H89">
+        <v>11529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>1003</v>
+      </c>
+      <c r="C90">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D90">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E90">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="F90">
+        <v>6154</v>
+      </c>
+      <c r="G90">
+        <v>1716</v>
+      </c>
+      <c r="H90">
+        <v>9518</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>1058</v>
+      </c>
+      <c r="C91">
+        <v>0.5</v>
+      </c>
+      <c r="D91">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E91">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F91">
+        <v>9040</v>
+      </c>
+      <c r="G91">
+        <v>2184</v>
+      </c>
+      <c r="H91">
+        <v>16827</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -2998,5 +3114,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>